--- a/EnemyPartDrop.xlsx
+++ b/EnemyPartDrop.xlsx
@@ -140,6 +140,12 @@
     <t>Heavy Gunner</t>
   </si>
   <si>
+    <t>Ghoul Auger Alpha</t>
+  </si>
+  <si>
+    <t>Quartakk Blueprint</t>
+  </si>
+  <si>
     <t>Grineer Manic</t>
   </si>
   <si>
@@ -161,12 +167,6 @@
     <t>0.2256</t>
   </si>
   <si>
-    <t>Ghoul Auger Alpha</t>
-  </si>
-  <si>
-    <t>Quartakk Blueprint</t>
-  </si>
-  <si>
     <t>Corrupted Warden</t>
   </si>
   <si>
@@ -230,6 +230,9 @@
     <t>0.015</t>
   </si>
   <si>
+    <t>Kuva Hyekka Master</t>
+  </si>
+  <si>
     <t>Zanuka Hunter</t>
   </si>
   <si>
@@ -237,9 +240,6 @@
   </si>
   <si>
     <t>Scimitar Avionics Blueprint</t>
-  </si>
-  <si>
-    <t>Kuva Hyekka Master</t>
   </si>
   <si>
     <t>Vem Tabook</t>
@@ -513,42 +513,42 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -737,7 +737,7 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>67</v>
@@ -746,7 +746,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
         <v>68</v>
@@ -755,7 +755,7 @@
         <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -777,36 +777,36 @@
         <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22">

--- a/EnemyPartDrop.xlsx
+++ b/EnemyPartDrop.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
   <si>
     <t>enemyName</t>
   </si>
@@ -71,6 +71,15 @@
     <t>drop[5].itemChance</t>
   </si>
   <si>
+    <t>drop[6].itemName</t>
+  </si>
+  <si>
+    <t>drop[6].itemDropChance</t>
+  </si>
+  <si>
+    <t>drop[6].itemChance</t>
+  </si>
+  <si>
     <t>Shadow Stalker</t>
   </si>
   <si>
@@ -104,6 +113,15 @@
     <t>0.0201</t>
   </si>
   <si>
+    <t>Smoking Body Ephemera Blueprint</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
     <t>Drekar Trooper</t>
   </si>
   <si>
@@ -113,31 +131,151 @@
     <t>0.005</t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>Juggernaut</t>
+  </si>
+  <si>
+    <t>Pherliac Pods Blueprint</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Grineer Warden</t>
+  </si>
+  <si>
+    <t>Gorgon Blueprint</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>Heavy Gunner</t>
+  </si>
+  <si>
+    <t>Stalker</t>
+  </si>
+  <si>
+    <t>0.1106</t>
+  </si>
+  <si>
+    <t>Conculyst</t>
+  </si>
+  <si>
+    <t>War Blade</t>
+  </si>
+  <si>
+    <t>War Hilt</t>
+  </si>
+  <si>
+    <t>Intact Sentient Core</t>
+  </si>
+  <si>
+    <t>Hunhow</t>
+  </si>
+  <si>
+    <t>Jack O'Naut</t>
+  </si>
+  <si>
+    <t>Mutalist Osprey Carrier</t>
+  </si>
+  <si>
+    <t>Powercell</t>
+  </si>
+  <si>
+    <t>Juggernaut Behemoth</t>
+  </si>
+  <si>
+    <t>Hellion Power Carrier</t>
+  </si>
+  <si>
+    <t>Kela De Thaym</t>
+  </si>
+  <si>
+    <t>Twin Kohmak Blueprint</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>Eximus Enemy</t>
+  </si>
+  <si>
+    <t>Oberon Chassis Blueprint</t>
+  </si>
+  <si>
+    <t>0.3872</t>
+  </si>
+  <si>
+    <t>Oberon Neuroptics Blueprint</t>
+  </si>
+  <si>
+    <t>Oberon Systems Blueprint</t>
+  </si>
+  <si>
+    <t>0.2256</t>
+  </si>
+  <si>
+    <t>Battalyst</t>
+  </si>
+  <si>
+    <t>Decaying Battalyst</t>
+  </si>
+  <si>
+    <t>Ghoul Rictus Alpha</t>
+  </si>
+  <si>
+    <t>Stubba Blueprint</t>
+  </si>
+  <si>
+    <t>Decaying Conculyst</t>
+  </si>
+  <si>
+    <t>Void Fissure Corrupted Enemy</t>
+  </si>
+  <si>
+    <t>Harrow Chassis Blueprint</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>Exploiter Orb</t>
+  </si>
+  <si>
+    <t>Hildryn Chassis Blueprint</t>
+  </si>
+  <si>
+    <t>Hildryn Neuroptics Blueprint</t>
+  </si>
+  <si>
+    <t>Hildryn Systems Blueprint</t>
+  </si>
+  <si>
+    <t>Shocking Step Ephemera Blueprint</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>Freezing Step Ephemera Blueprint</t>
   </si>
   <si>
     <t>Arid Heavy Gunner</t>
   </si>
   <si>
-    <t>Gorgon Blueprint</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>Juggernaut</t>
-  </si>
-  <si>
-    <t>Pherliac Pods Blueprint</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>Grineer Warden</t>
-  </si>
-  <si>
-    <t>Heavy Gunner</t>
+    <t>Grineer Manic</t>
+  </si>
+  <si>
+    <t>Ash Chassis Blueprint</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>Ash Neuroptics Blueprint</t>
+  </si>
+  <si>
+    <t>Ash Systems Blueprint</t>
   </si>
   <si>
     <t>Ghoul Auger Alpha</t>
@@ -146,52 +284,13 @@
     <t>Quartakk Blueprint</t>
   </si>
   <si>
-    <t>Grineer Manic</t>
-  </si>
-  <si>
-    <t>Ash Chassis Blueprint</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.3872</t>
-  </si>
-  <si>
-    <t>Ash Neuroptics Blueprint</t>
-  </si>
-  <si>
-    <t>Ash Systems Blueprint</t>
-  </si>
-  <si>
-    <t>0.2256</t>
-  </si>
-  <si>
     <t>Corrupted Warden</t>
   </si>
   <si>
-    <t>Stalker</t>
-  </si>
-  <si>
-    <t>0.1106</t>
-  </si>
-  <si>
-    <t>Conculyst</t>
-  </si>
-  <si>
-    <t>War Blade</t>
-  </si>
-  <si>
-    <t>War Hilt</t>
-  </si>
-  <si>
-    <t>Hunhow</t>
-  </si>
-  <si>
-    <t>Jack O'Naut</t>
-  </si>
-  <si>
-    <t>Juggernaut Behemoth</t>
+    <t>Nightwatch Lancer</t>
+  </si>
+  <si>
+    <t>Grineer Power Carrier</t>
   </si>
   <si>
     <t>Captain Vor</t>
@@ -200,39 +299,39 @@
     <t>Cronus Blueprint</t>
   </si>
   <si>
-    <t>Kela De Thaym</t>
-  </si>
-  <si>
-    <t>Twin Kohmak Blueprint</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>Eximus Enemy</t>
-  </si>
-  <si>
-    <t>Oberon Chassis Blueprint</t>
-  </si>
-  <si>
-    <t>Oberon Neuroptics Blueprint</t>
-  </si>
-  <si>
-    <t>Oberon Systems Blueprint</t>
+    <t>Wolf Of Saturn Six</t>
+  </si>
+  <si>
+    <t>Wolf Sledge Handle</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>Wolf Sledge Head</t>
+  </si>
+  <si>
+    <t>Wolf Sledge Blueprint</t>
+  </si>
+  <si>
+    <t>0.1128</t>
+  </si>
+  <si>
+    <t>Wolf Sledge Motor</t>
+  </si>
+  <si>
+    <t>Kuva Hyekka Master</t>
+  </si>
+  <si>
+    <t>Kavat Incubator Upgrade Segment Blueprint</t>
+  </si>
+  <si>
+    <t>0.015</t>
   </si>
   <si>
     <t>Hyekka Master</t>
   </si>
   <si>
-    <t>Kavat Incubator Upgrade Segment Blueprint</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
-    <t>Kuva Hyekka Master</t>
-  </si>
-  <si>
     <t>Zanuka Hunter</t>
   </si>
   <si>
@@ -251,22 +350,7 @@
     <t>Scimitar Fuselage Blueprint</t>
   </si>
   <si>
-    <t>Ghoul Rictus Alpha</t>
-  </si>
-  <si>
-    <t>Stubba Blueprint</t>
-  </si>
-  <si>
-    <t>Decaying Conculyst</t>
-  </si>
-  <si>
-    <t>Void Fissure Corrupted Enemy</t>
-  </si>
-  <si>
-    <t>Harrow Chassis Blueprint</t>
-  </si>
-  <si>
-    <t>0.03</t>
+    <t>Corpus Power Carrier</t>
   </si>
 </sst>
 </file>
@@ -311,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -375,258 +459,294 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -634,40 +754,13 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -675,101 +768,119 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -777,110 +888,308 @@
         <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
